--- a/100runs/run070/NotionalETEOutput070.xlsx
+++ b/100runs/run070/NotionalETEOutput070.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,10 +52,22 @@
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_99.MISSILE_HELLMASKER_99</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_80.MISSILE_HELLMASKER_80</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_302.MISSILE_SOMERSAULT_302</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_452.MISSILE_SOMERSAULT_452</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -413,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +474,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>297.0133030407846</v>
+        <v>1116578.900013641</v>
       </c>
       <c r="G2">
-        <v>-125.866478970155</v>
+        <v>4841121.041519233</v>
       </c>
       <c r="H2">
-        <v>632.305966455307</v>
+        <v>3985228.034967911</v>
       </c>
       <c r="I2">
-        <v>-2362.37711566931</v>
+        <v>1114862.176604244</v>
       </c>
       <c r="J2">
-        <v>1904.173539868908</v>
+        <v>4843219.640627684</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984364.454938187</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +509,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>297.0133030407846</v>
+        <v>1116578.900013641</v>
       </c>
       <c r="G3">
-        <v>-125.866478970155</v>
+        <v>4841121.041519233</v>
       </c>
       <c r="H3">
-        <v>632.305966455307</v>
+        <v>3985228.034967911</v>
       </c>
       <c r="I3">
-        <v>-2315.737501016295</v>
+        <v>1114891.790622468</v>
       </c>
       <c r="J3">
-        <v>1857.853006373786</v>
+        <v>4843170.989075953</v>
       </c>
       <c r="K3">
-        <v>185.5439624459844</v>
+        <v>3984668.250482881</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +544,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>297.0133030407846</v>
+        <v>1116578.900013641</v>
       </c>
       <c r="G4">
-        <v>-125.866478970155</v>
+        <v>4841121.041519233</v>
       </c>
       <c r="H4">
-        <v>632.305966455307</v>
+        <v>3985228.034967911</v>
       </c>
       <c r="I4">
-        <v>-2267.94942876011</v>
+        <v>1114922.133858646</v>
       </c>
       <c r="J4">
-        <v>1811.532472878664</v>
+        <v>4843122.337524222</v>
       </c>
       <c r="K4">
-        <v>361.8358524214212</v>
+        <v>3984956.897389167</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +579,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>297.0133030407846</v>
+        <v>1116578.900013641</v>
       </c>
       <c r="G5">
-        <v>-125.866478970155</v>
+        <v>4841121.041519233</v>
       </c>
       <c r="H5">
-        <v>632.305966455307</v>
+        <v>3985228.034967911</v>
       </c>
       <c r="I5">
-        <v>-2218.984619188836</v>
+        <v>1114953.224269099</v>
       </c>
       <c r="J5">
-        <v>1765.211939383542</v>
+        <v>4843073.685972491</v>
       </c>
       <c r="K5">
-        <v>528.8756699263115</v>
+        <v>3985230.395657047</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +614,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>297.0133030407846</v>
+        <v>1116578.900013641</v>
       </c>
       <c r="G6">
-        <v>-125.866478970155</v>
+        <v>4841121.041519233</v>
       </c>
       <c r="H6">
-        <v>632.305966455307</v>
+        <v>3985228.034967911</v>
       </c>
       <c r="I6">
-        <v>-2168.814096228669</v>
+        <v>1114985.080252307</v>
       </c>
       <c r="J6">
-        <v>1718.89140588842</v>
+        <v>4843025.03442076</v>
       </c>
       <c r="K6">
-        <v>686.6634149606543</v>
+        <v>3985488.745286519</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +649,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>297.0133030407846</v>
+        <v>1116578.900013641</v>
       </c>
       <c r="G7">
-        <v>-125.866478970155</v>
+        <v>4841121.041519233</v>
       </c>
       <c r="H7">
-        <v>632.305966455307</v>
+        <v>3985228.034967911</v>
       </c>
       <c r="I7">
-        <v>-2117.408170296641</v>
+        <v>1115017.720659796</v>
       </c>
       <c r="J7">
-        <v>1672.570872393297</v>
+        <v>4842976.38286903</v>
       </c>
       <c r="K7">
-        <v>835.199087524451</v>
+        <v>3985731.946277585</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +684,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>297.0133030407846</v>
+        <v>1116578.900013641</v>
       </c>
       <c r="G8">
-        <v>-125.866478970155</v>
+        <v>4841121.041519233</v>
       </c>
       <c r="H8">
-        <v>632.305966455307</v>
+        <v>3985228.034967911</v>
       </c>
       <c r="I8">
-        <v>-2064.736420731123</v>
+        <v>1115051.164807289</v>
       </c>
       <c r="J8">
-        <v>1626.250338898175</v>
+        <v>4842927.731317298</v>
       </c>
       <c r="K8">
-        <v>974.4826876177004</v>
+        <v>3985959.998630242</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +719,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>297.0133030407846</v>
+        <v>1116578.900013641</v>
       </c>
       <c r="G9">
-        <v>-125.866478970155</v>
+        <v>4841121.041519233</v>
       </c>
       <c r="H9">
-        <v>632.305966455307</v>
+        <v>3985228.034967911</v>
       </c>
       <c r="I9">
-        <v>-2010.767677789675</v>
+        <v>1115085.432486147</v>
       </c>
       <c r="J9">
-        <v>1579.929805403053</v>
+        <v>4842879.079765568</v>
       </c>
       <c r="K9">
-        <v>1104.514215240403</v>
+        <v>3986172.902344493</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +754,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>297.0133030407846</v>
+        <v>1116578.900013641</v>
       </c>
       <c r="G10">
-        <v>-105.0823803838855</v>
+        <v>4841137.554326431</v>
       </c>
       <c r="H10">
-        <v>632.305966455307</v>
+        <v>3985228.034967911</v>
       </c>
       <c r="I10">
-        <v>-1955.470004203626</v>
+        <v>1115120.543975071</v>
       </c>
       <c r="J10">
-        <v>1533.60927190793</v>
+        <v>4842830.428213838</v>
       </c>
       <c r="K10">
-        <v>1225.293670392558</v>
+        <v>3986370.657420336</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +789,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>230.5169716797549</v>
+        <v>1116530.219432599</v>
       </c>
       <c r="G11">
-        <v>-84.29828179761599</v>
+        <v>4841154.067133629</v>
       </c>
       <c r="H11">
-        <v>778.9966958507972</v>
+        <v>3985427.289360017</v>
       </c>
       <c r="I11">
-        <v>-1898.810676278448</v>
+        <v>1115156.520052107</v>
       </c>
       <c r="J11">
-        <v>1487.288738412808</v>
+        <v>4842781.776662107</v>
       </c>
       <c r="K11">
-        <v>1336.821053074166</v>
+        <v>3986553.263857773</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +824,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>191.4537128212263</v>
+        <v>1116501.622033319</v>
       </c>
       <c r="G12">
-        <v>-63.51418321134648</v>
+        <v>4841170.579940827</v>
       </c>
       <c r="H12">
-        <v>866.3731963274615</v>
+        <v>3985545.975466211</v>
       </c>
       <c r="I12">
-        <v>-1840.756164528739</v>
+        <v>1115193.382006943</v>
       </c>
       <c r="J12">
-        <v>1440.968204917686</v>
+        <v>4842733.125110375</v>
       </c>
       <c r="K12">
-        <v>1439.096363285228</v>
+        <v>3986720.721656802</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +859,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>166.7941180040561</v>
+        <v>1116483.569256881</v>
       </c>
       <c r="G13">
-        <v>-42.73008462507697</v>
+        <v>4841187.092748025</v>
       </c>
       <c r="H13">
-        <v>928.8152756662312</v>
+        <v>3985630.792404621</v>
       </c>
       <c r="I13">
-        <v>-1781.272113836363</v>
+        <v>1115231.151653505</v>
       </c>
       <c r="J13">
-        <v>1394.647671422564</v>
+        <v>4842684.473558644</v>
       </c>
       <c r="K13">
-        <v>1532.119601025742</v>
+        <v>3986873.030817423</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +894,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>149.5966166777335</v>
+        <v>1116470.979323875</v>
       </c>
       <c r="G14">
-        <v>-21.94598603880745</v>
+        <v>4841203.605555222</v>
       </c>
       <c r="H14">
-        <v>977.4388893939627</v>
+        <v>3985696.83930912</v>
       </c>
       <c r="I14">
-        <v>-1720.323323120011</v>
+        <v>1115269.851342866</v>
       </c>
       <c r="J14">
-        <v>1348.327137927441</v>
+        <v>4842635.822006914</v>
       </c>
       <c r="K14">
-        <v>1615.89076629571</v>
+        <v>3987010.191339638</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +929,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>136.7667656818929</v>
+        <v>1116461.586856826</v>
       </c>
       <c r="G15">
-        <v>-1.161887452537957</v>
+        <v>4841220.11836242</v>
       </c>
       <c r="H15">
-        <v>1017.265400628242</v>
+        <v>3985750.93684697</v>
       </c>
       <c r="I15">
-        <v>-1657.873724504129</v>
+        <v>1115309.503976474</v>
       </c>
       <c r="J15">
-        <v>1302.006604432319</v>
+        <v>4842587.170455183</v>
       </c>
       <c r="K15">
-        <v>1690.40985909513</v>
+        <v>3987132.203223445</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +964,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>126.7356138387208</v>
+        <v>1116454.243259214</v>
       </c>
       <c r="G16">
-        <v>19.62221113373156</v>
+        <v>4841236.631169617</v>
       </c>
       <c r="H16">
-        <v>1050.995548449262</v>
+        <v>3985796.7535126</v>
       </c>
       <c r="I16">
-        <v>-1593.886361974908</v>
+        <v>1115350.133019706</v>
       </c>
       <c r="J16">
-        <v>1255.686070937197</v>
+        <v>4842538.518903451</v>
       </c>
       <c r="K16">
-        <v>1755.676879424004</v>
+        <v>3987239.066468845</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +999,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>118.6196816054794</v>
+        <v>1116448.30175404</v>
       </c>
       <c r="G17">
-        <v>40.40630972000108</v>
+        <v>4841253.143976816</v>
       </c>
       <c r="H17">
-        <v>1080.250308508564</v>
+        <v>3985836.491125576</v>
       </c>
       <c r="I17">
-        <v>-1528.323369510699</v>
+        <v>1115391.762515748</v>
       </c>
       <c r="J17">
-        <v>1209.365537442075</v>
+        <v>4842489.867351721</v>
       </c>
       <c r="K17">
-        <v>1811.69182728233</v>
+        <v>3987330.781075838</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1034,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>111.8805659832285</v>
+        <v>1116443.368187669</v>
       </c>
       <c r="G18">
-        <v>61.19040830627057</v>
+        <v>4841269.656784014</v>
       </c>
       <c r="H18">
-        <v>1106.079366774223</v>
+        <v>3985871.575505649</v>
       </c>
       <c r="I18">
-        <v>-1461.145948673906</v>
+        <v>1115434.417099833</v>
       </c>
       <c r="J18">
-        <v>1163.045003946952</v>
+        <v>4842441.21579999</v>
       </c>
       <c r="K18">
-        <v>1858.45470267011</v>
+        <v>3987407.347044423</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1069,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>106.1696725488194</v>
+        <v>1116439.187361374</v>
       </c>
       <c r="G19">
-        <v>81.97450689254011</v>
+        <v>4841286.169591211</v>
       </c>
       <c r="H19">
-        <v>1129.201571474421</v>
+        <v>3985902.983085806</v>
       </c>
       <c r="I19">
-        <v>-1392.3143456511</v>
+        <v>1115478.122013808</v>
       </c>
       <c r="J19">
-        <v>1116.72447045183</v>
+        <v>4842392.564248259</v>
       </c>
       <c r="K19">
-        <v>1895.965505587343</v>
+        <v>3987468.764374602</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1104,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>101.2502950119314</v>
+        <v>1116435.585987404</v>
       </c>
       <c r="G20">
-        <v>102.7586054788096</v>
+        <v>4841302.68239841</v>
       </c>
       <c r="H20">
-        <v>1150.130839054885</v>
+        <v>3985931.411934078</v>
       </c>
       <c r="I20">
-        <v>-1321.787827727771</v>
+        <v>1115522.903121083</v>
       </c>
       <c r="J20">
-        <v>1070.403936956708</v>
+        <v>4842343.912696528</v>
       </c>
       <c r="K20">
-        <v>1924.224236034028</v>
+        <v>3987515.033066373</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1139,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>96.95542422945867</v>
+        <v>1116432.441801839</v>
       </c>
       <c r="G21">
-        <v>123.5427040650791</v>
+        <v>4841319.195205607</v>
       </c>
       <c r="H21">
-        <v>1169.247335240886</v>
+        <v>3985957.378440908</v>
       </c>
       <c r="I21">
-        <v>-1249.524659183788</v>
+        <v>1115568.786921927</v>
       </c>
       <c r="J21">
-        <v>1024.083403461585</v>
+        <v>4842295.261144797</v>
       </c>
       <c r="K21">
-        <v>1943.230894010167</v>
+        <v>3987546.153119737</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1174,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>93.16345925656599</v>
+        <v>1116429.665783157</v>
       </c>
       <c r="G22">
-        <v>144.3268026513486</v>
+        <v>4841335.708012804</v>
       </c>
       <c r="H22">
-        <v>1186.84020537284</v>
+        <v>3985981.275361033</v>
       </c>
       <c r="I22">
-        <v>-1175.482076595305</v>
+        <v>1115615.800569154</v>
       </c>
       <c r="J22">
-        <v>977.7628699664634</v>
+        <v>4842246.609593066</v>
       </c>
       <c r="K22">
-        <v>1952.985479515759</v>
+        <v>3987562.124534694</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1209,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>89.7835029431361</v>
+        <v>1116427.191387444</v>
       </c>
       <c r="G23">
-        <v>165.1109012376181</v>
+        <v>4841352.220820003</v>
       </c>
       <c r="H23">
-        <v>1203.134495512751</v>
+        <v>3986003.408381232</v>
       </c>
       <c r="I23">
-        <v>-1099.616263528507</v>
+        <v>1115663.971884192</v>
       </c>
       <c r="J23">
-        <v>931.4423364713412</v>
+        <v>4842197.958041336</v>
       </c>
       <c r="K23">
-        <v>1953.487992550803</v>
+        <v>3987562.947311244</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1244,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>86.74607840240104</v>
+        <v>1116424.967752117</v>
       </c>
       <c r="G24">
-        <v>185.8949998238877</v>
+        <v>4841368.733627201</v>
       </c>
       <c r="H24">
-        <v>1218.308802139648</v>
+        <v>3986024.020094426</v>
       </c>
       <c r="I24">
-        <v>-1021.882324610207</v>
+        <v>1115713.329373546</v>
       </c>
       <c r="J24">
-        <v>885.1218029762188</v>
+        <v>4842149.306489605</v>
       </c>
       <c r="K24">
-        <v>1944.738433115301</v>
+        <v>3987548.621449385</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1279,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>83.99705600071366</v>
+        <v>1116422.955249998</v>
       </c>
       <c r="G25">
-        <v>206.6790984101572</v>
+        <v>4841385.246434399</v>
       </c>
       <c r="H25">
-        <v>1232.507236348056</v>
+        <v>3986043.306251014</v>
       </c>
       <c r="I25">
-        <v>-942.2342589599566</v>
+        <v>1115763.902245668</v>
       </c>
       <c r="J25">
-        <v>838.8012694810967</v>
+        <v>4842100.654937874</v>
       </c>
       <c r="K25">
-        <v>1926.736801209252</v>
+        <v>3987519.14694912</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1314,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>81.49355780241169</v>
+        <v>1116421.12249104</v>
       </c>
       <c r="G26">
-        <v>227.4631969964267</v>
+        <v>4841401.759241597</v>
       </c>
       <c r="H26">
-        <v>1245.847767912577</v>
+        <v>3986061.427092857</v>
       </c>
       <c r="I26">
-        <v>-860.6249329679458</v>
+        <v>1115815.720428239</v>
       </c>
       <c r="J26">
-        <v>792.4807359859743</v>
+        <v>4842052.003386143</v>
       </c>
       <c r="K26">
-        <v>1899.483096832656</v>
+        <v>3987474.523810448</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1349,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>79.20112179179027</v>
+        <v>1116419.444246321</v>
       </c>
       <c r="G27">
-        <v>248.2472955826962</v>
+        <v>4841418.272048794</v>
       </c>
       <c r="H27">
-        <v>1258.428189003235</v>
+        <v>3986078.515453977</v>
       </c>
       <c r="I27">
-        <v>-777.0060524025851</v>
+        <v>1115868.814585884</v>
       </c>
       <c r="J27">
-        <v>746.160202490852</v>
+        <v>4842003.351834412</v>
       </c>
       <c r="K27">
-        <v>1862.977319985513</v>
+        <v>3987414.752033369</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1384,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>77.0916925662886</v>
+        <v>1116417.899977061</v>
       </c>
       <c r="G28">
-        <v>269.0313941689657</v>
+        <v>4841434.784855993</v>
       </c>
       <c r="H28">
-        <v>1270.330468618163</v>
+        <v>3986094.682675308</v>
       </c>
       <c r="I28">
-        <v>-691.3281338312622</v>
+        <v>1115923.216138316</v>
       </c>
       <c r="J28">
-        <v>699.8396689957299</v>
+        <v>4841954.700282681</v>
       </c>
       <c r="K28">
-        <v>1817.219470667823</v>
+        <v>3987339.831617882</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1419,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>75.14216838057258</v>
+        <v>1116416.472770956</v>
       </c>
       <c r="G29">
-        <v>289.8154927552353</v>
+        <v>4841451.29766319</v>
       </c>
       <c r="H29">
-        <v>1281.623992266614</v>
+        <v>3986110.023005256</v>
       </c>
       <c r="I29">
-        <v>-603.5404753373593</v>
+        <v>1115978.957278927</v>
       </c>
       <c r="J29">
-        <v>653.5191355006076</v>
+        <v>4841906.04873095</v>
       </c>
       <c r="K29">
-        <v>1762.209548879586</v>
+        <v>3987249.762563989</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1454,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>73.33333133849138</v>
+        <v>1116415.148558982</v>
       </c>
       <c r="G30">
-        <v>310.5995913415047</v>
+        <v>4841467.810470387</v>
       </c>
       <c r="H30">
-        <v>1292.368012741983</v>
+        <v>3986124.616928658</v>
       </c>
       <c r="I30">
-        <v>-513.5911265162092</v>
+        <v>1116036.070993846</v>
       </c>
       <c r="J30">
-        <v>607.1986020054852</v>
+        <v>4841857.39717922</v>
       </c>
       <c r="K30">
-        <v>1697.947554620802</v>
+        <v>3987144.544871687</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1489,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>71.64904686321341</v>
+        <v>1116413.915529351</v>
       </c>
       <c r="G31">
-        <v>331.3836899277742</v>
+        <v>4841484.323277586</v>
       </c>
       <c r="H31">
-        <v>1302.613531851178</v>
+        <v>3986138.533722789</v>
       </c>
       <c r="I31">
-        <v>-421.4268577322222</v>
+        <v>1116094.59108145</v>
       </c>
       <c r="J31">
-        <v>560.8780685103632</v>
+        <v>4841808.745627488</v>
       </c>
       <c r="K31">
-        <v>1624.433487891471</v>
+        <v>3987024.178540979</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1524,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>70.07565589369014</v>
+        <v>1116412.76368255</v>
       </c>
       <c r="G32">
-        <v>352.1677885140438</v>
+        <v>4841500.836084784</v>
       </c>
       <c r="H32">
-        <v>1312.404764640146</v>
+        <v>3986151.833446264</v>
       </c>
       <c r="I32">
-        <v>-326.9931286190019</v>
+        <v>1116154.552172374</v>
       </c>
       <c r="J32">
-        <v>514.5575350152408</v>
+        <v>4841760.094075757</v>
       </c>
       <c r="K32">
-        <v>1541.667348691593</v>
+        <v>3986888.663571863</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1559,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>68.60150730071686</v>
+        <v>1116411.684489027</v>
       </c>
       <c r="G33">
-        <v>372.9518871003132</v>
+        <v>4841517.348891981</v>
       </c>
       <c r="H33">
-        <v>1321.780292567542</v>
+        <v>3986164.56850543</v>
       </c>
       <c r="I33">
-        <v>-230.2340558038059</v>
+        <v>1116215.98975</v>
       </c>
       <c r="J33">
-        <v>468.2370015201187</v>
+        <v>4841711.442524027</v>
       </c>
       <c r="K33">
-        <v>1449.649137021168</v>
+        <v>3986737.999964341</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1594,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>67.21659384966459</v>
+        <v>1116410.670622697</v>
       </c>
       <c r="G34">
-        <v>393.7359856865828</v>
+        <v>4841533.86169918</v>
       </c>
       <c r="H34">
-        <v>1330.773981699118</v>
+        <v>3986176.784901572</v>
       </c>
       <c r="I34">
-        <v>-131.0923798372503</v>
+        <v>1116278.940171452</v>
       </c>
       <c r="J34">
-        <v>421.9164680249963</v>
+        <v>4841662.790972296</v>
       </c>
       <c r="K34">
-        <v>1348.378852880196</v>
+        <v>3986572.187718411</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1629,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>65.91226567097419</v>
+        <v>1116409.715751168</v>
       </c>
       <c r="G35">
-        <v>414.5200842728523</v>
+        <v>4841550.374506377</v>
       </c>
       <c r="H35">
-        <v>1339.415721137323</v>
+        <v>3986188.52323395</v>
       </c>
       <c r="I35">
-        <v>-29.50943130868814</v>
+        <v>1116343.44068912</v>
       </c>
       <c r="J35">
-        <v>375.595934529874</v>
+        <v>4841614.139420564</v>
       </c>
       <c r="K35">
-        <v>1237.856496268677</v>
+        <v>3986391.226834073</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1664,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>64.68100247037668</v>
+        <v>1116408.814368989</v>
       </c>
       <c r="G36">
-        <v>435.3041828591218</v>
+        <v>4841566.887313575</v>
       </c>
       <c r="H36">
-        <v>1347.732022332895</v>
+        <v>3986199.819513859</v>
       </c>
       <c r="I36">
-        <v>74.57490387279114</v>
+        <v>1116409.529472695</v>
       </c>
       <c r="J36">
-        <v>329.2754010347519</v>
+        <v>4841565.487868834</v>
       </c>
       <c r="K36">
-        <v>1118.082067186612</v>
+        <v>3986195.117311329</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1699,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>63.51623076422545</v>
+        <v>1116407.961663851</v>
       </c>
       <c r="G37">
-        <v>456.0882814453913</v>
+        <v>4841583.400120773</v>
       </c>
       <c r="H37">
-        <v>1355.746509591052</v>
+        <v>3986210.705830897</v>
       </c>
       <c r="I37">
-        <v>181.2222200522816</v>
+        <v>1116477.245631766</v>
       </c>
       <c r="J37">
-        <v>282.9548675396296</v>
+        <v>4841516.836317103</v>
       </c>
       <c r="K37">
-        <v>989.055565633999</v>
+        <v>3985983.859150177</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1734,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>62.41217599063721</v>
+        <v>1116407.153408316</v>
       </c>
       <c r="G38">
-        <v>476.8723800316608</v>
+        <v>4841599.91292797</v>
       </c>
       <c r="H38">
-        <v>1363.480324648485</v>
+        <v>3986221.210902514</v>
       </c>
       <c r="I38">
-        <v>290.4956282789612</v>
+        <v>1116546.629238956</v>
       </c>
       <c r="J38">
-        <v>236.6343340445075</v>
+        <v>4841468.184765372</v>
       </c>
       <c r="K38">
-        <v>850.7769916108397</v>
+        <v>3985757.452350618</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1769,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>61.36374189756816</v>
+        <v>1116406.385871524</v>
       </c>
       <c r="G39">
-        <v>497.6564786179304</v>
+        <v>4841616.425735169</v>
       </c>
       <c r="H39">
-        <v>1370.95246277551</v>
+        <v>3986231.360530554</v>
       </c>
       <c r="I39">
-        <v>402.4597936535295</v>
+        <v>1116617.721353641</v>
       </c>
       <c r="J39">
-        <v>190.3138005493851</v>
+        <v>4841419.533213641</v>
       </c>
       <c r="K39">
-        <v>703.2463451171325</v>
+        <v>3985515.896912652</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1804,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>60.36641145679602</v>
+        <v>1116405.655746653</v>
       </c>
       <c r="G40">
-        <v>518.4405772041998</v>
+        <v>4841632.938542367</v>
       </c>
       <c r="H40">
-        <v>1378.180053856504</v>
+        <v>3986241.177983049</v>
       </c>
       <c r="I40">
-        <v>517.1809735953041</v>
+        <v>1116690.564046248</v>
       </c>
       <c r="J40">
-        <v>143.9932670542628</v>
+        <v>4841370.881661911</v>
       </c>
       <c r="K40">
-        <v>546.4636261528788</v>
+        <v>3985259.192836279</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1839,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>59.41616490750246</v>
+        <v>1116404.96009092</v>
       </c>
       <c r="G41">
-        <v>539.2246757904693</v>
+        <v>4841649.451349564</v>
       </c>
       <c r="H41">
-        <v>1385.178598915643</v>
+        <v>3986250.684315501</v>
       </c>
       <c r="I41">
-        <v>634.7270570515927</v>
+        <v>1116765.200423145</v>
       </c>
       <c r="J41">
-        <v>97.67273355914067</v>
+        <v>4841322.23011018</v>
       </c>
       <c r="K41">
-        <v>380.4288347180784</v>
+        <v>3984987.340121498</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1874,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>58.50941153732313</v>
+        <v>1116404.296275638</v>
       </c>
       <c r="G42">
-        <v>560.0087743767388</v>
+        <v>4841665.964156763</v>
       </c>
       <c r="H42">
-        <v>1391.96217030313</v>
+        <v>3986259.898642805</v>
       </c>
       <c r="I42">
-        <v>755.1676046725812</v>
+        <v>1116841.674652159</v>
       </c>
       <c r="J42">
-        <v>51.35220006401833</v>
+        <v>4841273.578558449</v>
       </c>
       <c r="K42">
-        <v>205.1419708127306</v>
+        <v>3984700.33876831</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1909,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>57.64293256069615</v>
+        <v>1116403.661944403</v>
       </c>
       <c r="G43">
-        <v>580.7928729630084</v>
+        <v>4841682.476963961</v>
       </c>
       <c r="H43">
-        <v>1398.543582042443</v>
+        <v>3986268.838370631</v>
       </c>
       <c r="I43">
-        <v>878.5738899754634</v>
+        <v>1116920.031988708</v>
       </c>
       <c r="J43">
-        <v>5.031666568896004</v>
+        <v>4841224.927006718</v>
       </c>
       <c r="K43">
-        <v>20.60303443683589</v>
+        <v>3984398.188776715</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1944,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>56.81383302286041</v>
+        <v>1116403.054977876</v>
       </c>
       <c r="G44">
-        <v>601.5769715492779</v>
+        <v>4841698.989771158</v>
       </c>
       <c r="H44">
-        <v>1404.934535521685</v>
+        <v>3986277.519393322</v>
       </c>
       <c r="I44">
-        <v>1005.018941522227</v>
+        <v>1117000.318802582</v>
       </c>
       <c r="J44">
-        <v>-41.28886692622611</v>
+        <v>4841176.275454987</v>
       </c>
       <c r="K44">
-        <v>-173.1879744096052</v>
+        <v>3984080.890146713</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1979,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>56.01950109153156</v>
+        <v>1116402.473463992</v>
       </c>
       <c r="G45">
-        <v>622.3610701355474</v>
+        <v>4841715.502578356</v>
       </c>
       <c r="H45">
-        <v>1411.145744691231</v>
+        <v>3986285.956263957</v>
       </c>
       <c r="I45">
-        <v>1134.577586136017</v>
+        <v>1117082.582605385</v>
       </c>
       <c r="J45">
-        <v>-87.60940042134844</v>
+        <v>4841127.623903256</v>
       </c>
       <c r="K45">
-        <v>-376.2310557265938</v>
+        <v>3983748.442878304</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2014,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>55.25757343188202</v>
+        <v>1116401.915672601</v>
       </c>
       <c r="G46">
-        <v>643.145168721817</v>
+        <v>4841732.015385553</v>
       </c>
       <c r="H46">
-        <v>1417.187044132529</v>
+        <v>3986294.162341142</v>
       </c>
       <c r="I46">
-        <v>1267.326493181654</v>
+        <v>1117166.87207865</v>
       </c>
       <c r="J46">
-        <v>-133.9299339164708</v>
+        <v>4841078.972351525</v>
       </c>
       <c r="K46">
-        <v>-588.52620951413</v>
+        <v>3983400.846971487</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2049,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>54.5259056191075</v>
+        <v>1116401.380033814</v>
       </c>
       <c r="G47">
-        <v>663.9292673080864</v>
+        <v>4841748.528192751</v>
       </c>
       <c r="H47">
-        <v>1423.067482735485</v>
+        <v>3986302.149916254</v>
       </c>
       <c r="I47">
-        <v>1403.344219936535</v>
+        <v>1117253.23710265</v>
       </c>
       <c r="J47">
-        <v>-180.2504674115931</v>
+        <v>4841030.320799794</v>
       </c>
       <c r="K47">
-        <v>-810.0734357722126</v>
+        <v>3983038.102426263</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2084,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>53.82254674488889</v>
+        <v>1116400.865119412</v>
       </c>
       <c r="G48">
-        <v>684.7133658943559</v>
+        <v>4841765.04099995</v>
       </c>
       <c r="H48">
-        <v>1428.795405224679</v>
+        <v>3986309.930324179</v>
       </c>
       <c r="I48">
-        <v>1542.71125807874</v>
+        <v>1117341.728785912</v>
       </c>
       <c r="J48">
-        <v>-226.571000906715</v>
+        <v>4840981.669248063</v>
       </c>
       <c r="K48">
-        <v>-1040.872734500841</v>
+        <v>3982660.209242632</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2119,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>53.1457175329757</v>
+        <v>1116400.369626825</v>
       </c>
       <c r="G49">
-        <v>705.4974644806255</v>
+        <v>4841781.553807147</v>
       </c>
       <c r="H49">
-        <v>1434.378523378087</v>
+        <v>3986317.514040057</v>
       </c>
       <c r="I49">
-        <v>1685.510081319874</v>
+        <v>1117432.399495463</v>
       </c>
       <c r="J49">
-        <v>-272.8915344018374</v>
+        <v>4840933.017696332</v>
       </c>
       <c r="K49">
-        <v>-1280.924105700017</v>
+        <v>3982267.167420594</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2154,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>52.49379140494233</v>
+        <v>1116399.892365267</v>
       </c>
       <c r="G50">
-        <v>726.2815630668949</v>
+        <v>4841798.066614346</v>
       </c>
       <c r="H50">
-        <v>1439.823978463642</v>
+        <v>3986324.910764086</v>
       </c>
       <c r="I50">
-        <v>1831.825194210811</v>
+        <v>1117525.302887821</v>
       </c>
       <c r="J50">
-        <v>-319.2120678969597</v>
+        <v>4840884.366144601</v>
       </c>
       <c r="K50">
-        <v>-1530.227549369741</v>
+        <v>3981858.976960148</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>51.86527803742356</v>
+        <v>1116399.432243703</v>
       </c>
       <c r="G51">
-        <v>747.0656616531644</v>
+        <v>4841814.579421544</v>
       </c>
       <c r="H51">
-        <v>1445.138396161962</v>
+        <v>3986332.129496123</v>
       </c>
       <c r="I51">
-        <v>1981.743182149252</v>
+        <v>1117620.493940746</v>
       </c>
       <c r="J51">
-        <v>-365.532601392082</v>
+        <v>4840835.71459287</v>
       </c>
       <c r="K51">
-        <v>-1788.783065510012</v>
+        <v>3981435.637861295</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2224,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>51.2588090324931</v>
+        <v>1116398.98826036</v>
       </c>
       <c r="G52">
-        <v>767.849760239434</v>
+        <v>4841831.09222874</v>
       </c>
       <c r="H52">
-        <v>1450.327935034882</v>
+        <v>3986339.178601528</v>
       </c>
       <c r="I52">
-        <v>2135.35276261866</v>
+        <v>1117718.028985776</v>
       </c>
       <c r="J52">
-        <v>-411.8531348872043</v>
+        <v>4840787.063041139</v>
       </c>
       <c r="K52">
-        <v>-2056.590654120829</v>
+        <v>3980997.150124034</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2259,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>50.67312538761086</v>
+        <v>1116398.559493546</v>
       </c>
       <c r="G53">
-        <v>788.6338588257034</v>
+        <v>4841847.605035939</v>
       </c>
       <c r="H53">
-        <v>1455.398329429074</v>
+        <v>3986346.065869434</v>
       </c>
       <c r="I53">
-        <v>2292.744837688899</v>
+        <v>1117817.965741558</v>
       </c>
       <c r="J53">
-        <v>-458.1736683823262</v>
+        <v>4840738.411489409</v>
       </c>
       <c r="K53">
-        <v>-2333.650315202191</v>
+        <v>3980543.513748367</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2294,3741 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>50.10706650405348</v>
+        <v>1116398.145093611</v>
       </c>
       <c r="G54">
-        <v>809.4179574119729</v>
+        <v>4841864.117843137</v>
       </c>
       <c r="H54">
-        <v>1460.354927564301</v>
+        <v>3986352.798564489</v>
       </c>
       <c r="I54">
-        <v>2454.012547809692</v>
+        <v>1117920.363348013</v>
       </c>
       <c r="J54">
-        <v>-504.4942018774486</v>
+        <v>4840689.759937678</v>
       </c>
       <c r="K54">
-        <v>-2619.962048754103</v>
+        <v>3980074.728734293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116578.882787013</v>
+      </c>
+      <c r="G55">
+        <v>4841125.526913447</v>
+      </c>
+      <c r="H55">
+        <v>3985225.929826967</v>
+      </c>
+      <c r="I55">
+        <v>1114862.266732638</v>
+      </c>
+      <c r="J55">
+        <v>4843223.974976238</v>
+      </c>
+      <c r="K55">
+        <v>3984372.489849835</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116578.882787013</v>
+      </c>
+      <c r="G56">
+        <v>4841125.526913447</v>
+      </c>
+      <c r="H56">
+        <v>3985225.929826967</v>
+      </c>
+      <c r="I56">
+        <v>1114891.880753256</v>
+      </c>
+      <c r="J56">
+        <v>4843175.323380967</v>
+      </c>
+      <c r="K56">
+        <v>3984676.286007166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116578.882787013</v>
+      </c>
+      <c r="G57">
+        <v>4841125.526913447</v>
+      </c>
+      <c r="H57">
+        <v>3985225.929826967</v>
+      </c>
+      <c r="I57">
+        <v>1114922.223991887</v>
+      </c>
+      <c r="J57">
+        <v>4843126.671785695</v>
+      </c>
+      <c r="K57">
+        <v>3984964.933495542</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116578.882787013</v>
+      </c>
+      <c r="G58">
+        <v>4841125.526913447</v>
+      </c>
+      <c r="H58">
+        <v>3985225.929826967</v>
+      </c>
+      <c r="I58">
+        <v>1114953.314404854</v>
+      </c>
+      <c r="J58">
+        <v>4843078.020190425</v>
+      </c>
+      <c r="K58">
+        <v>3985238.43231496</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116578.882787013</v>
+      </c>
+      <c r="G59">
+        <v>4841125.526913447</v>
+      </c>
+      <c r="H59">
+        <v>3985225.929826967</v>
+      </c>
+      <c r="I59">
+        <v>1114985.170390637</v>
+      </c>
+      <c r="J59">
+        <v>4843029.368595155</v>
+      </c>
+      <c r="K59">
+        <v>3985496.782465423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116578.882787013</v>
+      </c>
+      <c r="G60">
+        <v>4841125.526913447</v>
+      </c>
+      <c r="H60">
+        <v>3985225.929826967</v>
+      </c>
+      <c r="I60">
+        <v>1115017.810800764</v>
+      </c>
+      <c r="J60">
+        <v>4842980.716999885</v>
+      </c>
+      <c r="K60">
+        <v>3985739.983946931</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116578.882787013</v>
+      </c>
+      <c r="G61">
+        <v>4841125.526913447</v>
+      </c>
+      <c r="H61">
+        <v>3985225.929826967</v>
+      </c>
+      <c r="I61">
+        <v>1115051.254950961</v>
+      </c>
+      <c r="J61">
+        <v>4842932.065404613</v>
+      </c>
+      <c r="K61">
+        <v>3985968.036759481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116578.882787013</v>
+      </c>
+      <c r="G62">
+        <v>4841125.526913447</v>
+      </c>
+      <c r="H62">
+        <v>3985225.929826967</v>
+      </c>
+      <c r="I62">
+        <v>1115085.522632589</v>
+      </c>
+      <c r="J62">
+        <v>4842883.413809342</v>
+      </c>
+      <c r="K62">
+        <v>3986180.940903076</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116578.882787013</v>
+      </c>
+      <c r="G63">
+        <v>4841142.039735945</v>
+      </c>
+      <c r="H63">
+        <v>3985225.929826967</v>
+      </c>
+      <c r="I63">
+        <v>1115120.634124352</v>
+      </c>
+      <c r="J63">
+        <v>4842834.762214072</v>
+      </c>
+      <c r="K63">
+        <v>3986378.696377714</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116530.202206722</v>
+      </c>
+      <c r="G64">
+        <v>4841158.552558442</v>
+      </c>
+      <c r="H64">
+        <v>3985425.18411382</v>
+      </c>
+      <c r="I64">
+        <v>1115156.610204297</v>
+      </c>
+      <c r="J64">
+        <v>4842786.110618802</v>
+      </c>
+      <c r="K64">
+        <v>3986561.303183396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116501.604807883</v>
+      </c>
+      <c r="G65">
+        <v>4841175.065380939</v>
+      </c>
+      <c r="H65">
+        <v>3985543.87015732</v>
+      </c>
+      <c r="I65">
+        <v>1115193.472162113</v>
+      </c>
+      <c r="J65">
+        <v>4842737.459023531</v>
+      </c>
+      <c r="K65">
+        <v>3986728.761320123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116483.552031724</v>
+      </c>
+      <c r="G66">
+        <v>4841191.578203437</v>
+      </c>
+      <c r="H66">
+        <v>3985628.687050926</v>
+      </c>
+      <c r="I66">
+        <v>1115231.241811728</v>
+      </c>
+      <c r="J66">
+        <v>4842688.807428259</v>
+      </c>
+      <c r="K66">
+        <v>3986881.070787892</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116470.962098912</v>
+      </c>
+      <c r="G67">
+        <v>4841208.091025934</v>
+      </c>
+      <c r="H67">
+        <v>3985694.733920537</v>
+      </c>
+      <c r="I67">
+        <v>1115269.941504217</v>
+      </c>
+      <c r="J67">
+        <v>4842640.155832989</v>
+      </c>
+      <c r="K67">
+        <v>3987018.231586706</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116461.569632008</v>
+      </c>
+      <c r="G68">
+        <v>4841224.603848431</v>
+      </c>
+      <c r="H68">
+        <v>3985748.831429811</v>
+      </c>
+      <c r="I68">
+        <v>1115309.594141031</v>
+      </c>
+      <c r="J68">
+        <v>4842591.504237719</v>
+      </c>
+      <c r="K68">
+        <v>3987140.243716564</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116454.226034509</v>
+      </c>
+      <c r="G69">
+        <v>4841241.116670928</v>
+      </c>
+      <c r="H69">
+        <v>3985794.648071238</v>
+      </c>
+      <c r="I69">
+        <v>1115350.223187547</v>
+      </c>
+      <c r="J69">
+        <v>4842542.852642448</v>
+      </c>
+      <c r="K69">
+        <v>3987247.107177466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116448.284529427</v>
+      </c>
+      <c r="G70">
+        <v>4841257.629493426</v>
+      </c>
+      <c r="H70">
+        <v>3985834.385663223</v>
+      </c>
+      <c r="I70">
+        <v>1115391.852686955</v>
+      </c>
+      <c r="J70">
+        <v>4842494.201047177</v>
+      </c>
+      <c r="K70">
+        <v>3987338.821969411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116443.350963132</v>
+      </c>
+      <c r="G71">
+        <v>4841274.142315923</v>
+      </c>
+      <c r="H71">
+        <v>3985869.470024764</v>
+      </c>
+      <c r="I71">
+        <v>1115434.507274488</v>
+      </c>
+      <c r="J71">
+        <v>4842445.549451907</v>
+      </c>
+      <c r="K71">
+        <v>3987415.3880924</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116439.170136901</v>
+      </c>
+      <c r="G72">
+        <v>4841290.65513842</v>
+      </c>
+      <c r="H72">
+        <v>3985900.87758833</v>
+      </c>
+      <c r="I72">
+        <v>1115478.212191997</v>
+      </c>
+      <c r="J72">
+        <v>4842396.897856636</v>
+      </c>
+      <c r="K72">
+        <v>3987476.805546434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116435.568762987</v>
+      </c>
+      <c r="G73">
+        <v>4841307.167960918</v>
+      </c>
+      <c r="H73">
+        <v>3985929.306421584</v>
+      </c>
+      <c r="I73">
+        <v>1115522.993302892</v>
+      </c>
+      <c r="J73">
+        <v>4842348.246261365</v>
+      </c>
+      <c r="K73">
+        <v>3987523.074331511</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116432.424577471</v>
+      </c>
+      <c r="G74">
+        <v>4841323.680783415</v>
+      </c>
+      <c r="H74">
+        <v>3985955.272914698</v>
+      </c>
+      <c r="I74">
+        <v>1115568.877107445</v>
+      </c>
+      <c r="J74">
+        <v>4842299.594666095</v>
+      </c>
+      <c r="K74">
+        <v>3987554.194447631</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116429.648558831</v>
+      </c>
+      <c r="G75">
+        <v>4841340.193605912</v>
+      </c>
+      <c r="H75">
+        <v>3985979.169822201</v>
+      </c>
+      <c r="I75">
+        <v>1115615.890758472</v>
+      </c>
+      <c r="J75">
+        <v>4842250.943070824</v>
+      </c>
+      <c r="K75">
+        <v>3987570.165894797</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>70</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116427.174163156</v>
+      </c>
+      <c r="G76">
+        <v>4841356.70642841</v>
+      </c>
+      <c r="H76">
+        <v>3986001.302830708</v>
+      </c>
+      <c r="I76">
+        <v>1115664.062077405</v>
+      </c>
+      <c r="J76">
+        <v>4842202.291475554</v>
+      </c>
+      <c r="K76">
+        <v>3987570.988673005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>70</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116424.950527864</v>
+      </c>
+      <c r="G77">
+        <v>4841373.219250907</v>
+      </c>
+      <c r="H77">
+        <v>3986021.914533014</v>
+      </c>
+      <c r="I77">
+        <v>1115713.419570749</v>
+      </c>
+      <c r="J77">
+        <v>4842153.639880282</v>
+      </c>
+      <c r="K77">
+        <v>3987556.662782257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>70</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116422.938025775</v>
+      </c>
+      <c r="G78">
+        <v>4841389.732073404</v>
+      </c>
+      <c r="H78">
+        <v>3986041.200679414</v>
+      </c>
+      <c r="I78">
+        <v>1115763.992446959</v>
+      </c>
+      <c r="J78">
+        <v>4842104.988285012</v>
+      </c>
+      <c r="K78">
+        <v>3987527.188222554</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>70</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116421.105266846</v>
+      </c>
+      <c r="G79">
+        <v>4841406.244895902</v>
+      </c>
+      <c r="H79">
+        <v>3986059.321511685</v>
+      </c>
+      <c r="I79">
+        <v>1115815.81063372</v>
+      </c>
+      <c r="J79">
+        <v>4842056.336689741</v>
+      </c>
+      <c r="K79">
+        <v>3987482.564993894</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>70</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116419.427022152</v>
+      </c>
+      <c r="G80">
+        <v>4841422.757718398</v>
+      </c>
+      <c r="H80">
+        <v>3986076.409863778</v>
+      </c>
+      <c r="I80">
+        <v>1115868.904795657</v>
+      </c>
+      <c r="J80">
+        <v>4842007.68509447</v>
+      </c>
+      <c r="K80">
+        <v>3987422.793096278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>70</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116417.882752917</v>
+      </c>
+      <c r="G81">
+        <v>4841439.270540896</v>
+      </c>
+      <c r="H81">
+        <v>3986092.577076569</v>
+      </c>
+      <c r="I81">
+        <v>1115923.306352487</v>
+      </c>
+      <c r="J81">
+        <v>4841959.0334992</v>
+      </c>
+      <c r="K81">
+        <v>3987347.872529706</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>70</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116416.455546833</v>
+      </c>
+      <c r="G82">
+        <v>4841455.783363394</v>
+      </c>
+      <c r="H82">
+        <v>3986107.917398415</v>
+      </c>
+      <c r="I82">
+        <v>1115979.047497605</v>
+      </c>
+      <c r="J82">
+        <v>4841910.381903929</v>
+      </c>
+      <c r="K82">
+        <v>3987257.803294179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>70</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116415.13133488</v>
+      </c>
+      <c r="G83">
+        <v>4841472.29618589</v>
+      </c>
+      <c r="H83">
+        <v>3986122.511314108</v>
+      </c>
+      <c r="I83">
+        <v>1116036.16121714</v>
+      </c>
+      <c r="J83">
+        <v>4841861.730308658</v>
+      </c>
+      <c r="K83">
+        <v>3987152.585389694</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>70</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116413.898305268</v>
+      </c>
+      <c r="G84">
+        <v>4841488.809008388</v>
+      </c>
+      <c r="H84">
+        <v>3986136.428100887</v>
+      </c>
+      <c r="I84">
+        <v>1116094.681309476</v>
+      </c>
+      <c r="J84">
+        <v>4841813.078713387</v>
+      </c>
+      <c r="K84">
+        <v>3987032.218816254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>70</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116412.746458484</v>
+      </c>
+      <c r="G85">
+        <v>4841505.321830885</v>
+      </c>
+      <c r="H85">
+        <v>3986149.727817337</v>
+      </c>
+      <c r="I85">
+        <v>1116154.642405248</v>
+      </c>
+      <c r="J85">
+        <v>4841764.427118117</v>
+      </c>
+      <c r="K85">
+        <v>3986896.703573857</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>70</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116411.667264979</v>
+      </c>
+      <c r="G86">
+        <v>4841521.834653382</v>
+      </c>
+      <c r="H86">
+        <v>3986162.462869775</v>
+      </c>
+      <c r="I86">
+        <v>1116216.079987839</v>
+      </c>
+      <c r="J86">
+        <v>4841715.775522847</v>
+      </c>
+      <c r="K86">
+        <v>3986746.039662505</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>70</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116410.653398664</v>
+      </c>
+      <c r="G87">
+        <v>4841538.34747588</v>
+      </c>
+      <c r="H87">
+        <v>3986174.679259464</v>
+      </c>
+      <c r="I87">
+        <v>1116279.030414381</v>
+      </c>
+      <c r="J87">
+        <v>4841667.123927576</v>
+      </c>
+      <c r="K87">
+        <v>3986580.227082196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>70</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116409.698527149</v>
+      </c>
+      <c r="G88">
+        <v>4841554.860298377</v>
+      </c>
+      <c r="H88">
+        <v>3986186.417585642</v>
+      </c>
+      <c r="I88">
+        <v>1116343.530937263</v>
+      </c>
+      <c r="J88">
+        <v>4841618.472332304</v>
+      </c>
+      <c r="K88">
+        <v>3986399.265832931</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>70</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116408.797144985</v>
+      </c>
+      <c r="G89">
+        <v>4841571.373120874</v>
+      </c>
+      <c r="H89">
+        <v>3986197.713859584</v>
+      </c>
+      <c r="I89">
+        <v>1116409.619726181</v>
+      </c>
+      <c r="J89">
+        <v>4841569.820737034</v>
+      </c>
+      <c r="K89">
+        <v>3986203.15591471</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>70</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116407.94443986</v>
+      </c>
+      <c r="G90">
+        <v>4841587.885943372</v>
+      </c>
+      <c r="H90">
+        <v>3986208.600170871</v>
+      </c>
+      <c r="I90">
+        <v>1116477.335890726</v>
+      </c>
+      <c r="J90">
+        <v>4841521.169141764</v>
+      </c>
+      <c r="K90">
+        <v>3985991.897327533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>70</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116407.136184337</v>
+      </c>
+      <c r="G91">
+        <v>4841604.398765869</v>
+      </c>
+      <c r="H91">
+        <v>3986219.105236939</v>
+      </c>
+      <c r="I91">
+        <v>1116546.719503526</v>
+      </c>
+      <c r="J91">
+        <v>4841472.517546494</v>
+      </c>
+      <c r="K91">
+        <v>3985765.4900714</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>70</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116406.368647557</v>
+      </c>
+      <c r="G92">
+        <v>4841620.911588366</v>
+      </c>
+      <c r="H92">
+        <v>3986229.254859617</v>
+      </c>
+      <c r="I92">
+        <v>1116617.811623958</v>
+      </c>
+      <c r="J92">
+        <v>4841423.865951222</v>
+      </c>
+      <c r="K92">
+        <v>3985523.93414631</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>70</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116405.638522698</v>
+      </c>
+      <c r="G93">
+        <v>4841637.424410864</v>
+      </c>
+      <c r="H93">
+        <v>3986239.072306926</v>
+      </c>
+      <c r="I93">
+        <v>1116690.654322453</v>
+      </c>
+      <c r="J93">
+        <v>4841375.214355951</v>
+      </c>
+      <c r="K93">
+        <v>3985267.229552265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>70</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116404.942866975</v>
+      </c>
+      <c r="G94">
+        <v>4841653.93723336</v>
+      </c>
+      <c r="H94">
+        <v>3986248.578634357</v>
+      </c>
+      <c r="I94">
+        <v>1116765.290705384</v>
+      </c>
+      <c r="J94">
+        <v>4841326.562760681</v>
+      </c>
+      <c r="K94">
+        <v>3984995.376289263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116404.279051704</v>
+      </c>
+      <c r="G95">
+        <v>4841670.450055858</v>
+      </c>
+      <c r="H95">
+        <v>3986257.792956794</v>
+      </c>
+      <c r="I95">
+        <v>1116841.764940581</v>
+      </c>
+      <c r="J95">
+        <v>4841277.911165411</v>
+      </c>
+      <c r="K95">
+        <v>3984708.374357305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>70</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116403.644720478</v>
+      </c>
+      <c r="G96">
+        <v>4841686.962878356</v>
+      </c>
+      <c r="H96">
+        <v>3986266.732679897</v>
+      </c>
+      <c r="I96">
+        <v>1116920.122283464</v>
+      </c>
+      <c r="J96">
+        <v>4841229.259570139</v>
+      </c>
+      <c r="K96">
+        <v>3984406.223756392</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>70</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116403.037753961</v>
+      </c>
+      <c r="G97">
+        <v>4841703.475700852</v>
+      </c>
+      <c r="H97">
+        <v>3986275.413698003</v>
+      </c>
+      <c r="I97">
+        <v>1117000.409103829</v>
+      </c>
+      <c r="J97">
+        <v>4841180.607974869</v>
+      </c>
+      <c r="K97">
+        <v>3984088.924486521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>70</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116402.456240085</v>
+      </c>
+      <c r="G98">
+        <v>4841719.98852335</v>
+      </c>
+      <c r="H98">
+        <v>3986283.850564181</v>
+      </c>
+      <c r="I98">
+        <v>1117082.672913282</v>
+      </c>
+      <c r="J98">
+        <v>4841131.956379598</v>
+      </c>
+      <c r="K98">
+        <v>3983756.476547695</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>70</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116401.898448703</v>
+      </c>
+      <c r="G99">
+        <v>4841736.501345847</v>
+      </c>
+      <c r="H99">
+        <v>3986292.056637031</v>
+      </c>
+      <c r="I99">
+        <v>1117166.962393362</v>
+      </c>
+      <c r="J99">
+        <v>4841083.304784327</v>
+      </c>
+      <c r="K99">
+        <v>3983408.879939913</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>70</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116401.362809924</v>
+      </c>
+      <c r="G100">
+        <v>4841753.014168344</v>
+      </c>
+      <c r="H100">
+        <v>3986300.044207923</v>
+      </c>
+      <c r="I100">
+        <v>1117253.327424344</v>
+      </c>
+      <c r="J100">
+        <v>4841034.653189057</v>
+      </c>
+      <c r="K100">
+        <v>3983046.134663175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>70</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116400.847895531</v>
+      </c>
+      <c r="G101">
+        <v>4841769.526990842</v>
+      </c>
+      <c r="H101">
+        <v>3986307.824611739</v>
+      </c>
+      <c r="I101">
+        <v>1117341.819114759</v>
+      </c>
+      <c r="J101">
+        <v>4840986.001593786</v>
+      </c>
+      <c r="K101">
+        <v>3982668.24071748</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>70</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116400.352402951</v>
+      </c>
+      <c r="G102">
+        <v>4841786.039813339</v>
+      </c>
+      <c r="H102">
+        <v>3986315.408323611</v>
+      </c>
+      <c r="I102">
+        <v>1117432.48983164</v>
+      </c>
+      <c r="J102">
+        <v>4840937.349998516</v>
+      </c>
+      <c r="K102">
+        <v>3982275.19810283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>70</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116399.8751414</v>
+      </c>
+      <c r="G103">
+        <v>4841802.552635836</v>
+      </c>
+      <c r="H103">
+        <v>3986322.805043732</v>
+      </c>
+      <c r="I103">
+        <v>1117525.393231509</v>
+      </c>
+      <c r="J103">
+        <v>4840888.698403244</v>
+      </c>
+      <c r="K103">
+        <v>3981867.006819223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>70</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116399.415019844</v>
+      </c>
+      <c r="G104">
+        <v>4841819.065458334</v>
+      </c>
+      <c r="H104">
+        <v>3986330.023771956</v>
+      </c>
+      <c r="I104">
+        <v>1117620.58429213</v>
+      </c>
+      <c r="J104">
+        <v>4840840.046807974</v>
+      </c>
+      <c r="K104">
+        <v>3981443.66686666</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>70</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116398.971036507</v>
+      </c>
+      <c r="G105">
+        <v>4841835.578280831</v>
+      </c>
+      <c r="H105">
+        <v>3986337.072873638</v>
+      </c>
+      <c r="I105">
+        <v>1117718.119345044</v>
+      </c>
+      <c r="J105">
+        <v>4840791.395212703</v>
+      </c>
+      <c r="K105">
+        <v>3981005.17824514</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>70</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116398.5422697</v>
+      </c>
+      <c r="G106">
+        <v>4841852.091103328</v>
+      </c>
+      <c r="H106">
+        <v>3986343.960137906</v>
+      </c>
+      <c r="I106">
+        <v>1117818.056108906</v>
+      </c>
+      <c r="J106">
+        <v>4840742.743617433</v>
+      </c>
+      <c r="K106">
+        <v>3980551.540954665</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>70</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116398.127869772</v>
+      </c>
+      <c r="G107">
+        <v>4841868.603925826</v>
+      </c>
+      <c r="H107">
+        <v>3986350.692829404</v>
+      </c>
+      <c r="I107">
+        <v>1117920.453723638</v>
+      </c>
+      <c r="J107">
+        <v>4840694.092022162</v>
+      </c>
+      <c r="K107">
+        <v>3980082.754995234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>70</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116579.762994103</v>
+      </c>
+      <c r="G108">
+        <v>4841128.864796461</v>
+      </c>
+      <c r="H108">
+        <v>3985219.689893126</v>
+      </c>
+      <c r="I108">
+        <v>1114860.577258195</v>
+      </c>
+      <c r="J108">
+        <v>4843223.424033218</v>
+      </c>
+      <c r="K108">
+        <v>3984365.829822368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>70</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116579.762994103</v>
+      </c>
+      <c r="G109">
+        <v>4841128.864796461</v>
+      </c>
+      <c r="H109">
+        <v>3985219.689893126</v>
+      </c>
+      <c r="I109">
+        <v>1114890.191233935</v>
+      </c>
+      <c r="J109">
+        <v>4843174.772443483</v>
+      </c>
+      <c r="K109">
+        <v>3984669.625471893</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>70</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116579.762994103</v>
+      </c>
+      <c r="G110">
+        <v>4841128.864796461</v>
+      </c>
+      <c r="H110">
+        <v>3985219.689893126</v>
+      </c>
+      <c r="I110">
+        <v>1114920.534426584</v>
+      </c>
+      <c r="J110">
+        <v>4843126.120853745</v>
+      </c>
+      <c r="K110">
+        <v>3984958.272477783</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>70</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116579.762994103</v>
+      </c>
+      <c r="G111">
+        <v>4841128.864796461</v>
+      </c>
+      <c r="H111">
+        <v>3985219.689893126</v>
+      </c>
+      <c r="I111">
+        <v>1114951.624792436</v>
+      </c>
+      <c r="J111">
+        <v>4843077.469264009</v>
+      </c>
+      <c r="K111">
+        <v>3985231.770840039</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>70</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116579.762994103</v>
+      </c>
+      <c r="G112">
+        <v>4841128.864796461</v>
+      </c>
+      <c r="H112">
+        <v>3985219.689893126</v>
+      </c>
+      <c r="I112">
+        <v>1114983.480729945</v>
+      </c>
+      <c r="J112">
+        <v>4843028.817674274</v>
+      </c>
+      <c r="K112">
+        <v>3985490.12055866</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>70</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116579.762994103</v>
+      </c>
+      <c r="G113">
+        <v>4841128.864796461</v>
+      </c>
+      <c r="H113">
+        <v>3985219.689893126</v>
+      </c>
+      <c r="I113">
+        <v>1115016.121090608</v>
+      </c>
+      <c r="J113">
+        <v>4842980.166084537</v>
+      </c>
+      <c r="K113">
+        <v>3985733.321633647</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>70</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116579.762994103</v>
+      </c>
+      <c r="G114">
+        <v>4841128.864796461</v>
+      </c>
+      <c r="H114">
+        <v>3985219.689893126</v>
+      </c>
+      <c r="I114">
+        <v>1115049.565190123</v>
+      </c>
+      <c r="J114">
+        <v>4842931.5144948</v>
+      </c>
+      <c r="K114">
+        <v>3985961.374064998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>70</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116579.762994103</v>
+      </c>
+      <c r="G115">
+        <v>4841128.864796461</v>
+      </c>
+      <c r="H115">
+        <v>3985219.689893126</v>
+      </c>
+      <c r="I115">
+        <v>1115083.832819822</v>
+      </c>
+      <c r="J115">
+        <v>4842882.862905064</v>
+      </c>
+      <c r="K115">
+        <v>3986174.277852716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>70</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116579.762994103</v>
+      </c>
+      <c r="G116">
+        <v>4841145.377630344</v>
+      </c>
+      <c r="H116">
+        <v>3985219.689893126</v>
+      </c>
+      <c r="I116">
+        <v>1115118.944258376</v>
+      </c>
+      <c r="J116">
+        <v>4842834.211315328</v>
+      </c>
+      <c r="K116">
+        <v>3986372.032996798</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>70</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116531.082375437</v>
+      </c>
+      <c r="G117">
+        <v>4841161.890464226</v>
+      </c>
+      <c r="H117">
+        <v>3985418.943867993</v>
+      </c>
+      <c r="I117">
+        <v>1115154.920283802</v>
+      </c>
+      <c r="J117">
+        <v>4842785.559725592</v>
+      </c>
+      <c r="K117">
+        <v>3986554.639497247</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>70</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116502.484954054</v>
+      </c>
+      <c r="G118">
+        <v>4841178.403298109</v>
+      </c>
+      <c r="H118">
+        <v>3985537.629725658</v>
+      </c>
+      <c r="I118">
+        <v>1115191.782185758</v>
+      </c>
+      <c r="J118">
+        <v>4842736.908135855</v>
+      </c>
+      <c r="K118">
+        <v>3986722.09735406</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>70</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116484.432163665</v>
+      </c>
+      <c r="G119">
+        <v>4841194.916131992</v>
+      </c>
+      <c r="H119">
+        <v>3985622.446486461</v>
+      </c>
+      <c r="I119">
+        <v>1115229.551778136</v>
+      </c>
+      <c r="J119">
+        <v>4842688.256546119</v>
+      </c>
+      <c r="K119">
+        <v>3986874.406567239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>70</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116471.842220927</v>
+      </c>
+      <c r="G120">
+        <v>4841211.428965874</v>
+      </c>
+      <c r="H120">
+        <v>3985688.493252658</v>
+      </c>
+      <c r="I120">
+        <v>1115268.25141198</v>
+      </c>
+      <c r="J120">
+        <v>4842639.604956383</v>
+      </c>
+      <c r="K120">
+        <v>3987011.567136784</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>70</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116462.44974662</v>
+      </c>
+      <c r="G121">
+        <v>4841227.941799757</v>
+      </c>
+      <c r="H121">
+        <v>3985742.590677228</v>
+      </c>
+      <c r="I121">
+        <v>1115307.903988703</v>
+      </c>
+      <c r="J121">
+        <v>4842590.953366647</v>
+      </c>
+      <c r="K121">
+        <v>3987133.579062694</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>70</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116455.106143331</v>
+      </c>
+      <c r="G122">
+        <v>4841244.454633639</v>
+      </c>
+      <c r="H122">
+        <v>3985788.407246917</v>
+      </c>
+      <c r="I122">
+        <v>1115348.532973649</v>
+      </c>
+      <c r="J122">
+        <v>4842542.30177691</v>
+      </c>
+      <c r="K122">
+        <v>3987240.442344969</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>70</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116449.164633565</v>
+      </c>
+      <c r="G123">
+        <v>4841260.967467522</v>
+      </c>
+      <c r="H123">
+        <v>3985828.144776682</v>
+      </c>
+      <c r="I123">
+        <v>1115390.162409972</v>
+      </c>
+      <c r="J123">
+        <v>4842493.650187174</v>
+      </c>
+      <c r="K123">
+        <v>3987332.156983609</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>70</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116444.231063381</v>
+      </c>
+      <c r="G124">
+        <v>4841277.480301405</v>
+      </c>
+      <c r="H124">
+        <v>3985863.229083289</v>
+      </c>
+      <c r="I124">
+        <v>1115432.816932865</v>
+      </c>
+      <c r="J124">
+        <v>4842444.998597438</v>
+      </c>
+      <c r="K124">
+        <v>3987408.722978616</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>70</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116440.050233855</v>
+      </c>
+      <c r="G125">
+        <v>4841293.993135286</v>
+      </c>
+      <c r="H125">
+        <v>3985894.636597678</v>
+      </c>
+      <c r="I125">
+        <v>1115476.521784143</v>
+      </c>
+      <c r="J125">
+        <v>4842396.347007702</v>
+      </c>
+      <c r="K125">
+        <v>3987470.140329987</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>70</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116436.448857102</v>
+      </c>
+      <c r="G126">
+        <v>4841310.50596917</v>
+      </c>
+      <c r="H126">
+        <v>3985923.06538642</v>
+      </c>
+      <c r="I126">
+        <v>1115521.302827177</v>
+      </c>
+      <c r="J126">
+        <v>4842347.695417965</v>
+      </c>
+      <c r="K126">
+        <v>3987516.409037725</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>70</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116433.304669107</v>
+      </c>
+      <c r="G127">
+        <v>4841327.018803053</v>
+      </c>
+      <c r="H127">
+        <v>3985949.031838876</v>
+      </c>
+      <c r="I127">
+        <v>1115567.186562197</v>
+      </c>
+      <c r="J127">
+        <v>4842299.043828228</v>
+      </c>
+      <c r="K127">
+        <v>3987547.529101827</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>70</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116430.528648279</v>
+      </c>
+      <c r="G128">
+        <v>4841343.531636935</v>
+      </c>
+      <c r="H128">
+        <v>3985972.928708962</v>
+      </c>
+      <c r="I128">
+        <v>1115614.200141979</v>
+      </c>
+      <c r="J128">
+        <v>4842250.392238492</v>
+      </c>
+      <c r="K128">
+        <v>3987563.500522295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>70</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116428.054250654</v>
+      </c>
+      <c r="G129">
+        <v>4841360.044470818</v>
+      </c>
+      <c r="H129">
+        <v>3985995.061682813</v>
+      </c>
+      <c r="I129">
+        <v>1115662.371387912</v>
+      </c>
+      <c r="J129">
+        <v>4842201.740648757</v>
+      </c>
+      <c r="K129">
+        <v>3987564.323299129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>70</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116425.830613608</v>
+      </c>
+      <c r="G130">
+        <v>4841376.557304701</v>
+      </c>
+      <c r="H130">
+        <v>3986015.673352847</v>
+      </c>
+      <c r="I130">
+        <v>1115711.72880646</v>
+      </c>
+      <c r="J130">
+        <v>4842153.089059019</v>
+      </c>
+      <c r="K130">
+        <v>3987549.997432327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>70</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116423.818109934</v>
+      </c>
+      <c r="G131">
+        <v>4841393.070138583</v>
+      </c>
+      <c r="H131">
+        <v>3986034.959469049</v>
+      </c>
+      <c r="I131">
+        <v>1115762.301606031</v>
+      </c>
+      <c r="J131">
+        <v>4842104.437469283</v>
+      </c>
+      <c r="K131">
+        <v>3987520.522921891</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>70</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116421.98534956</v>
+      </c>
+      <c r="G132">
+        <v>4841409.582972466</v>
+      </c>
+      <c r="H132">
+        <v>3986053.080272947</v>
+      </c>
+      <c r="I132">
+        <v>1115814.119714266</v>
+      </c>
+      <c r="J132">
+        <v>4842055.785879548</v>
+      </c>
+      <c r="K132">
+        <v>3987475.899767821</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>70</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116420.307103543</v>
+      </c>
+      <c r="G133">
+        <v>4841426.095806348</v>
+      </c>
+      <c r="H133">
+        <v>3986070.168598284</v>
+      </c>
+      <c r="I133">
+        <v>1115867.213795744</v>
+      </c>
+      <c r="J133">
+        <v>4842007.13428981</v>
+      </c>
+      <c r="K133">
+        <v>3987416.127970116</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116418.76283309</v>
+      </c>
+      <c r="G134">
+        <v>4841442.608640231</v>
+      </c>
+      <c r="H134">
+        <v>3986086.335785761</v>
+      </c>
+      <c r="I134">
+        <v>1115921.615270133</v>
+      </c>
+      <c r="J134">
+        <v>4841958.482700074</v>
+      </c>
+      <c r="K134">
+        <v>3987341.207528776</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116417.335625881</v>
+      </c>
+      <c r="G135">
+        <v>4841459.121474114</v>
+      </c>
+      <c r="H135">
+        <v>3986101.676083587</v>
+      </c>
+      <c r="I135">
+        <v>1115977.35633078</v>
+      </c>
+      <c r="J135">
+        <v>4841909.831110339</v>
+      </c>
+      <c r="K135">
+        <v>3987251.138443803</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116416.011412884</v>
+      </c>
+      <c r="G136">
+        <v>4841475.634307996</v>
+      </c>
+      <c r="H136">
+        <v>3986116.269976429</v>
+      </c>
+      <c r="I136">
+        <v>1116034.469963765</v>
+      </c>
+      <c r="J136">
+        <v>4841861.179520602</v>
+      </c>
+      <c r="K136">
+        <v>3987145.920715195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116414.7783823</v>
+      </c>
+      <c r="G137">
+        <v>4841492.147141879</v>
+      </c>
+      <c r="H137">
+        <v>3986130.186741418</v>
+      </c>
+      <c r="I137">
+        <v>1116092.989967418</v>
+      </c>
+      <c r="J137">
+        <v>4841812.527930865</v>
+      </c>
+      <c r="K137">
+        <v>3987025.554342951</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>70</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116413.626534608</v>
+      </c>
+      <c r="G138">
+        <v>4841508.659975762</v>
+      </c>
+      <c r="H138">
+        <v>3986143.486437044</v>
+      </c>
+      <c r="I138">
+        <v>1116152.950972324</v>
+      </c>
+      <c r="J138">
+        <v>4841763.87634113</v>
+      </c>
+      <c r="K138">
+        <v>3986890.039327073</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>70</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116412.547340252</v>
+      </c>
+      <c r="G139">
+        <v>4841525.172809644</v>
+      </c>
+      <c r="H139">
+        <v>3986156.221469542</v>
+      </c>
+      <c r="I139">
+        <v>1116214.388461813</v>
+      </c>
+      <c r="J139">
+        <v>4841715.224751393</v>
+      </c>
+      <c r="K139">
+        <v>3986739.375667561</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>70</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116411.533473138</v>
+      </c>
+      <c r="G140">
+        <v>4841541.685643527</v>
+      </c>
+      <c r="H140">
+        <v>3986168.437840103</v>
+      </c>
+      <c r="I140">
+        <v>1116277.338792959</v>
+      </c>
+      <c r="J140">
+        <v>4841666.573161657</v>
+      </c>
+      <c r="K140">
+        <v>3986573.563364414</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>70</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116410.578600871</v>
+      </c>
+      <c r="G141">
+        <v>4841558.198477409</v>
+      </c>
+      <c r="H141">
+        <v>3986180.176147901</v>
+      </c>
+      <c r="I141">
+        <v>1116341.839218096</v>
+      </c>
+      <c r="J141">
+        <v>4841617.92157192</v>
+      </c>
+      <c r="K141">
+        <v>3986392.602417633</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>70</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116409.677217996</v>
+      </c>
+      <c r="G142">
+        <v>4841574.711311292</v>
+      </c>
+      <c r="H142">
+        <v>3986191.472404156</v>
+      </c>
+      <c r="I142">
+        <v>1116407.927906863</v>
+      </c>
+      <c r="J142">
+        <v>4841569.269982184</v>
+      </c>
+      <c r="K142">
+        <v>3986196.492827217</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>70</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116408.824512198</v>
+      </c>
+      <c r="G143">
+        <v>4841591.224145175</v>
+      </c>
+      <c r="H143">
+        <v>3986202.358698397</v>
+      </c>
+      <c r="I143">
+        <v>1116475.64396879</v>
+      </c>
+      <c r="J143">
+        <v>4841520.618392448</v>
+      </c>
+      <c r="K143">
+        <v>3985985.234593167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>70</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116408.016256038</v>
+      </c>
+      <c r="G144">
+        <v>4841607.736979057</v>
+      </c>
+      <c r="H144">
+        <v>3986212.863748017</v>
+      </c>
+      <c r="I144">
+        <v>1116545.027476444</v>
+      </c>
+      <c r="J144">
+        <v>4841471.966802712</v>
+      </c>
+      <c r="K144">
+        <v>3985758.827715482</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>70</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116407.248718653</v>
+      </c>
+      <c r="G145">
+        <v>4841624.24981294</v>
+      </c>
+      <c r="H145">
+        <v>3986223.013354803</v>
+      </c>
+      <c r="I145">
+        <v>1116616.119489143</v>
+      </c>
+      <c r="J145">
+        <v>4841423.315212975</v>
+      </c>
+      <c r="K145">
+        <v>3985517.272194162</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>70</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116406.518593218</v>
+      </c>
+      <c r="G146">
+        <v>4841640.762646823</v>
+      </c>
+      <c r="H146">
+        <v>3986232.83078674</v>
+      </c>
+      <c r="I146">
+        <v>1116688.962077252</v>
+      </c>
+      <c r="J146">
+        <v>4841374.663623239</v>
+      </c>
+      <c r="K146">
+        <v>3985260.568029208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>70</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116405.822936947</v>
+      </c>
+      <c r="G147">
+        <v>4841657.275480705</v>
+      </c>
+      <c r="H147">
+        <v>3986242.337099287</v>
+      </c>
+      <c r="I147">
+        <v>1116763.598347078</v>
+      </c>
+      <c r="J147">
+        <v>4841326.012033503</v>
+      </c>
+      <c r="K147">
+        <v>3984988.715220619</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>70</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116405.159121153</v>
+      </c>
+      <c r="G148">
+        <v>4841673.788314588</v>
+      </c>
+      <c r="H148">
+        <v>3986251.551407296</v>
+      </c>
+      <c r="I148">
+        <v>1116840.072466385</v>
+      </c>
+      <c r="J148">
+        <v>4841277.360443767</v>
+      </c>
+      <c r="K148">
+        <v>3984701.713768396</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>70</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116404.524789427</v>
+      </c>
+      <c r="G149">
+        <v>4841690.301148471</v>
+      </c>
+      <c r="H149">
+        <v>3986260.491116402</v>
+      </c>
+      <c r="I149">
+        <v>1116918.429690524</v>
+      </c>
+      <c r="J149">
+        <v>4841228.70885403</v>
+      </c>
+      <c r="K149">
+        <v>3984399.563672538</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>70</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116403.917822432</v>
+      </c>
+      <c r="G150">
+        <v>4841706.813982354</v>
+      </c>
+      <c r="H150">
+        <v>3986269.172120915</v>
+      </c>
+      <c r="I150">
+        <v>1116998.716389221</v>
+      </c>
+      <c r="J150">
+        <v>4841180.057264294</v>
+      </c>
+      <c r="K150">
+        <v>3984082.264933045</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>70</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116403.336308098</v>
+      </c>
+      <c r="G151">
+        <v>4841723.326816237</v>
+      </c>
+      <c r="H151">
+        <v>3986277.608973883</v>
+      </c>
+      <c r="I151">
+        <v>1117080.980074011</v>
+      </c>
+      <c r="J151">
+        <v>4841131.405674558</v>
+      </c>
+      <c r="K151">
+        <v>3983749.817549918</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>70</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116402.778516275</v>
+      </c>
+      <c r="G152">
+        <v>4841739.839650118</v>
+      </c>
+      <c r="H152">
+        <v>3986285.815033885</v>
+      </c>
+      <c r="I152">
+        <v>1117165.269426358</v>
+      </c>
+      <c r="J152">
+        <v>4841082.754084821</v>
+      </c>
+      <c r="K152">
+        <v>3983402.221523156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>70</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116402.242877075</v>
+      </c>
+      <c r="G153">
+        <v>4841756.352484001</v>
+      </c>
+      <c r="H153">
+        <v>3986293.80259227</v>
+      </c>
+      <c r="I153">
+        <v>1117251.634326461</v>
+      </c>
+      <c r="J153">
+        <v>4841034.102495085</v>
+      </c>
+      <c r="K153">
+        <v>3983039.476852761</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>70</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116401.727962275</v>
+      </c>
+      <c r="G154">
+        <v>4841772.865317884</v>
+      </c>
+      <c r="H154">
+        <v>3986301.582983903</v>
+      </c>
+      <c r="I154">
+        <v>1117340.125882775</v>
+      </c>
+      <c r="J154">
+        <v>4840985.450905348</v>
+      </c>
+      <c r="K154">
+        <v>3982661.58353873</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>70</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116401.232469304</v>
+      </c>
+      <c r="G155">
+        <v>4841789.378151766</v>
+      </c>
+      <c r="H155">
+        <v>3986309.166683901</v>
+      </c>
+      <c r="I155">
+        <v>1117430.796462253</v>
+      </c>
+      <c r="J155">
+        <v>4840936.799315613</v>
+      </c>
+      <c r="K155">
+        <v>3982268.541581064</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>70</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116400.755207377</v>
+      </c>
+      <c r="G156">
+        <v>4841805.890985649</v>
+      </c>
+      <c r="H156">
+        <v>3986316.56339244</v>
+      </c>
+      <c r="I156">
+        <v>1117523.699721335</v>
+      </c>
+      <c r="J156">
+        <v>4840888.147725875</v>
+      </c>
+      <c r="K156">
+        <v>3981860.350979764</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>70</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116400.295085459</v>
+      </c>
+      <c r="G157">
+        <v>4841822.403819532</v>
+      </c>
+      <c r="H157">
+        <v>3986323.782109362</v>
+      </c>
+      <c r="I157">
+        <v>1117618.890637702</v>
+      </c>
+      <c r="J157">
+        <v>4840839.496136139</v>
+      </c>
+      <c r="K157">
+        <v>3981437.01173483</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>70</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116399.851101772</v>
+      </c>
+      <c r="G158">
+        <v>4841838.916653414</v>
+      </c>
+      <c r="H158">
+        <v>3986330.831200006</v>
+      </c>
+      <c r="I158">
+        <v>1117716.425542811</v>
+      </c>
+      <c r="J158">
+        <v>4840790.844546404</v>
+      </c>
+      <c r="K158">
+        <v>3980998.523846261</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>70</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116399.422334627</v>
+      </c>
+      <c r="G159">
+        <v>4841855.429487297</v>
+      </c>
+      <c r="H159">
+        <v>3986337.71845349</v>
+      </c>
+      <c r="I159">
+        <v>1117816.362155228</v>
+      </c>
+      <c r="J159">
+        <v>4840742.192956667</v>
+      </c>
+      <c r="K159">
+        <v>3980544.887314057</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>70</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116399.007934372</v>
+      </c>
+      <c r="G160">
+        <v>4841871.94232118</v>
+      </c>
+      <c r="H160">
+        <v>3986344.451134447</v>
+      </c>
+      <c r="I160">
+        <v>1117918.759614785</v>
+      </c>
+      <c r="J160">
+        <v>4840693.54136693</v>
+      </c>
+      <c r="K160">
+        <v>3980076.10213822</v>
       </c>
     </row>
   </sheetData>
